--- a/pub/Masonic/Proficiency_Chart.xlsx
+++ b/pub/Masonic/Proficiency_Chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Assistant</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Right Worshipful Sr Warden</t>
-  </si>
-  <si>
-    <t>Degree Parts and Roles</t>
   </si>
   <si>
     <t>Chapter and Council</t>
@@ -671,11 +668,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -690,70 +685,81 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="E6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="10">
         <v>2</v>
@@ -762,78 +768,78 @@
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="11">
         <v>3</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="11">
         <v>2</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -842,14 +848,14 @@
     <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="10">
         <v>2</v>
@@ -858,14 +864,14 @@
     <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G15" s="10">
         <v>2</v>
@@ -874,30 +880,30 @@
     <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
         <v>5</v>
-      </c>
-      <c r="G16" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="10">
         <v>5</v>
@@ -906,366 +912,350 @@
     <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
         <v>5</v>
-      </c>
-      <c r="C18" s="11">
-        <v>3</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="11">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="11">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="11">
-        <v>3</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
-        <v>33</v>
+      <c r="A22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
-        <v>39</v>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G24" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="11">
         <v>2</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="13">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C26" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G26" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C27" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G27" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0</v>
+      <c r="B28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
-        <v>48</v>
+      <c r="F28" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="G28" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>4</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C30" s="11">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="11">
         <v>4</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="11">
-        <v>4</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8" t="s">
-        <v>33</v>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G32" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G33" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="C34" s="11">
+        <v>5</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
-        <v>9</v>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C36" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="10">
+        <v>50</v>
+      </c>
+      <c r="G36" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C37" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G37" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="13">
-        <v>2</v>
+      <c r="F38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C39" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="4" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G39" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="4" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G40" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="11">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" s="10">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
